--- a/coventotest1/src/test/resources/datasheet.xlsx
+++ b/coventotest1/src/test/resources/datasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDEV\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDEV\git\repository\coventotest1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4669750E-2FE7-4CCA-B59D-4B4173BDF990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F0DD45-F2F3-4758-9347-AC779328EADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{E599E6F5-3FDF-4736-A6E0-6EC9C2074F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E599E6F5-3FDF-4736-A6E0-6EC9C2074F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -44,23 +44,17 @@
     <t>password</t>
   </si>
   <si>
-    <t>aswin</t>
+    <t>testuser</t>
   </si>
   <si>
-    <t>aswincheck</t>
-  </si>
-  <si>
-    <t>heisy</t>
-  </si>
-  <si>
-    <t>heisycheck</t>
+    <t>Test@1357</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +66,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,14 +96,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF4806D-E12A-4047-88E5-ECEA9147B79E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,19 +443,14 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2EE8F8EF-B616-4582-A183-465B1977A429}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Classification: Confidential</oddFooter>
